--- a/biology/Histoire de la zoologie et de la botanique/John_Bell_Hatcher/John_Bell_Hatcher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Bell_Hatcher/John_Bell_Hatcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Bell Hatcher (11 octobre 1861 – 3 juillet 1904 (à 42 ans)) fut un des grands chasseurs de dinosaures de la fin du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans l’Illinois, son père, fermier, lui fait son éducation car Hatcher était jugé trop fragile pour aller à l'école. Il travaille plus tard dans une mine de charbon où il commence à faire ses premières découvertes. Avec ses économies, il se paie des études de paléontologie à l’université Yale. Son diplôme en poche, il est embauché par Othniel Charles Marsh (1831-1899), l'un des plus grands paléontologues américains.
 Ses découvertes sont si nombreuses qu’il ne tarde pas à faire des envieux. Certains pensaient qu’il était doué d'un sixième sens. Or la raison était qu’Hatcher savait où et comment chercher les fossiles. Il utilisait aussi une technique consistant à placer des fourmilières dans les couches fossilifères pour que les fourmis nettoient le sol autour des ossements[réf. nécessaire]. En 1886, en étudiant les couches géologiques de la rivière Judith dans le Montana, il découvre un étrange crâne qu’il envoie à Marsh. Celui-ci le nomme « cératopid », avant de le renommer Triceratops. Une espèce sera d'ailleurs nommée en l'honneur de Hatcher: Diceratops hatcheri (Lull, 1905), qui est reconnue aujourd'hui comme appartenant sans doute au Triceratops.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Magazine « Dinosaures, sur les traces des géants de la préhistoire », n° 8.</t>
         </is>
